--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il34-Csf1r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il34-Csf1r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Il34</t>
+  </si>
+  <si>
+    <t>Csf1r</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Il34</t>
-  </si>
-  <si>
-    <t>Csf1r</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.3027365</v>
+        <v>4.311203</v>
       </c>
       <c r="H2">
-        <v>2.605473</v>
+        <v>8.622406</v>
       </c>
       <c r="I2">
-        <v>0.07384773732165571</v>
+        <v>0.168599917917489</v>
       </c>
       <c r="J2">
-        <v>0.06425330510909943</v>
+        <v>0.162674471805938</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9656040000000001</v>
+        <v>1.3231235</v>
       </c>
       <c r="N2">
-        <v>1.931208</v>
+        <v>2.646247</v>
       </c>
       <c r="O2">
-        <v>0.002170982161762564</v>
+        <v>0.003784488539009737</v>
       </c>
       <c r="P2">
-        <v>0.001450469595059265</v>
+        <v>0.002537298145238945</v>
       </c>
       <c r="Q2">
-        <v>1.257927575346</v>
+        <v>5.704254002570499</v>
       </c>
       <c r="R2">
-        <v>5.031710301384001</v>
+        <v>22.817016010282</v>
       </c>
       <c r="S2">
-        <v>0.0001603221204118421</v>
+        <v>0.0006380644570367196</v>
       </c>
       <c r="T2">
-        <v>9.319746544281487E-05</v>
+        <v>0.0004127536355909316</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.3027365</v>
+        <v>4.311203</v>
       </c>
       <c r="H3">
-        <v>2.605473</v>
+        <v>8.622406</v>
       </c>
       <c r="I3">
-        <v>0.07384773732165571</v>
+        <v>0.168599917917489</v>
       </c>
       <c r="J3">
-        <v>0.06425330510909943</v>
+        <v>0.162674471805938</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>1.140421</v>
       </c>
       <c r="N3">
-        <v>3.421263</v>
+        <v>3.421263000000001</v>
       </c>
       <c r="O3">
-        <v>0.002564025882141565</v>
+        <v>0.003261910323674263</v>
       </c>
       <c r="P3">
-        <v>0.00256960304545199</v>
+        <v>0.003280405897210136</v>
       </c>
       <c r="Q3">
-        <v>1.4856680620665</v>
+        <v>4.916586436463001</v>
       </c>
       <c r="R3">
-        <v>8.914008372399</v>
+        <v>29.499518618778</v>
       </c>
       <c r="S3">
-        <v>0.0001893475098303169</v>
+        <v>0.0005499578128256909</v>
       </c>
       <c r="T3">
-        <v>0.0001651054884886978</v>
+        <v>0.000533638296637743</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.3027365</v>
+        <v>4.311203</v>
       </c>
       <c r="H4">
-        <v>2.605473</v>
+        <v>8.622406</v>
       </c>
       <c r="I4">
-        <v>0.07384773732165571</v>
+        <v>0.168599917917489</v>
       </c>
       <c r="J4">
-        <v>0.06425330510909943</v>
+        <v>0.162674471805938</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>181.6731516666667</v>
+        <v>167.436325</v>
       </c>
       <c r="N4">
-        <v>545.019455</v>
+        <v>502.308975</v>
       </c>
       <c r="O4">
-        <v>0.4084585104654889</v>
+        <v>0.47891285505579</v>
       </c>
       <c r="P4">
-        <v>0.4093469725649807</v>
+        <v>0.4816283705203542</v>
       </c>
       <c r="Q4">
-        <v>236.6722457462025</v>
+        <v>721.8519866489751</v>
       </c>
       <c r="R4">
-        <v>1420.033474477215</v>
+        <v>4331.11191989385</v>
       </c>
       <c r="S4">
-        <v>0.03016373678765019</v>
+        <v>0.08074466805203651</v>
       </c>
       <c r="T4">
-        <v>0.02630189592370386</v>
+        <v>0.07834864078115322</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.3027365</v>
+        <v>4.311203</v>
       </c>
       <c r="H5">
-        <v>2.605473</v>
+        <v>8.622406</v>
       </c>
       <c r="I5">
-        <v>0.07384773732165571</v>
+        <v>0.168599917917489</v>
       </c>
       <c r="J5">
-        <v>0.06425330510909943</v>
+        <v>0.162674471805938</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.9304815</v>
+        <v>4.5905135</v>
       </c>
       <c r="N5">
-        <v>3.860963</v>
+        <v>9.181027</v>
       </c>
       <c r="O5">
-        <v>0.004340330922523763</v>
+        <v>0.01313010140695066</v>
       </c>
       <c r="P5">
-        <v>0.00289984788751331</v>
+        <v>0.008803034175754825</v>
       </c>
       <c r="Q5">
-        <v>2.51490871262475</v>
+        <v>19.7906355727405</v>
       </c>
       <c r="R5">
-        <v>10.059634850499</v>
+        <v>79.16254229096199</v>
       </c>
       <c r="S5">
-        <v>0.0003205236178555945</v>
+        <v>0.002213734019460188</v>
       </c>
       <c r="T5">
-        <v>0.0001863248110863702</v>
+        <v>0.001432028934830537</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.3027365</v>
+        <v>4.311203</v>
       </c>
       <c r="H6">
-        <v>2.605473</v>
+        <v>8.622406</v>
       </c>
       <c r="I6">
-        <v>0.07384773732165571</v>
+        <v>0.168599917917489</v>
       </c>
       <c r="J6">
-        <v>0.06425330510909943</v>
+        <v>0.162674471805938</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.738101</v>
+        <v>62.54697533333334</v>
       </c>
       <c r="N6">
-        <v>8.214302999999999</v>
+        <v>187.640926</v>
       </c>
       <c r="O6">
-        <v>0.006156114129709732</v>
+        <v>0.1789011466418099</v>
       </c>
       <c r="P6">
-        <v>0.006169504655171325</v>
+        <v>0.1799155458695723</v>
       </c>
       <c r="Q6">
-        <v>3.5670241133865</v>
+        <v>269.6527076979927</v>
       </c>
       <c r="R6">
-        <v>21.402144680319</v>
+        <v>1617.916246187956</v>
       </c>
       <c r="S6">
-        <v>0.0004546150991729374</v>
+        <v>0.03016271863915381</v>
       </c>
       <c r="T6">
-        <v>0.0003964110649807325</v>
+        <v>0.02926766639400969</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.3027365</v>
+        <v>4.311203</v>
       </c>
       <c r="H7">
-        <v>2.605473</v>
+        <v>8.622406</v>
       </c>
       <c r="I7">
-        <v>0.07384773732165571</v>
+        <v>0.168599917917489</v>
       </c>
       <c r="J7">
-        <v>0.06425330510909943</v>
+        <v>0.162674471805938</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>256.3297323333333</v>
+        <v>112.5801623333333</v>
       </c>
       <c r="N7">
-        <v>768.9891969999999</v>
+        <v>337.740487</v>
       </c>
       <c r="O7">
-        <v>0.5763100364383734</v>
+        <v>0.3220094980327655</v>
       </c>
       <c r="P7">
-        <v>0.5775636022518233</v>
+        <v>0.3238353453918694</v>
       </c>
       <c r="Q7">
-        <v>333.9300983458635</v>
+        <v>485.3559335919537</v>
       </c>
       <c r="R7">
-        <v>2003.580590075181</v>
+        <v>2912.135601551722</v>
       </c>
       <c r="S7">
-        <v>0.04255919218673483</v>
+        <v>0.0542907749369761</v>
       </c>
       <c r="T7">
-        <v>0.03711037035539695</v>
+        <v>0.05267974376371586</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>4.682106</v>
       </c>
       <c r="I8">
-        <v>0.08847093125385119</v>
+        <v>0.0610349893274942</v>
       </c>
       <c r="J8">
-        <v>0.1154649406733999</v>
+        <v>0.08833487085732371</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.9656040000000001</v>
+        <v>1.3231235</v>
       </c>
       <c r="N8">
-        <v>1.931208</v>
+        <v>2.646247</v>
       </c>
       <c r="O8">
-        <v>0.002170982161762564</v>
+        <v>0.003784488539009737</v>
       </c>
       <c r="P8">
-        <v>0.001450469595059265</v>
+        <v>0.002537298145238945</v>
       </c>
       <c r="Q8">
-        <v>1.507020094008</v>
+        <v>2.065001492697</v>
       </c>
       <c r="R8">
-        <v>9.042120564048002</v>
+        <v>12.390008956182</v>
       </c>
       <c r="S8">
-        <v>0.000192068813586633</v>
+        <v>0.0002309862175884834</v>
       </c>
       <c r="T8">
-        <v>0.0001674783857420883</v>
+        <v>0.0002241319039862092</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>4.682106</v>
       </c>
       <c r="I9">
-        <v>0.08847093125385119</v>
+        <v>0.0610349893274942</v>
       </c>
       <c r="J9">
-        <v>0.1154649406733999</v>
+        <v>0.08833487085732371</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,13 +998,13 @@
         <v>1.140421</v>
       </c>
       <c r="N9">
-        <v>3.421263</v>
+        <v>3.421263000000001</v>
       </c>
       <c r="O9">
-        <v>0.002564025882141565</v>
+        <v>0.003261910323674263</v>
       </c>
       <c r="P9">
-        <v>0.00256960304545199</v>
+        <v>0.003280405897210136</v>
       </c>
       <c r="Q9">
         <v>1.779857335542</v>
@@ -1013,10 +1013,10 @@
         <v>16.018716019878</v>
       </c>
       <c r="S9">
-        <v>0.0002268417575520415</v>
+        <v>0.0001990906617927018</v>
       </c>
       <c r="T9">
-        <v>0.0002966990631973015</v>
+        <v>0.0002897742312896605</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>4.682106</v>
       </c>
       <c r="I10">
-        <v>0.08847093125385119</v>
+        <v>0.0610349893274942</v>
       </c>
       <c r="J10">
-        <v>0.1154649406733999</v>
+        <v>0.08833487085732371</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>181.6731516666667</v>
+        <v>167.436325</v>
       </c>
       <c r="N10">
-        <v>545.019455</v>
+        <v>502.308975</v>
       </c>
       <c r="O10">
-        <v>0.4084585104654889</v>
+        <v>0.47891285505579</v>
       </c>
       <c r="P10">
-        <v>0.4093469725649807</v>
+        <v>0.4816283705203542</v>
       </c>
       <c r="Q10">
-        <v>283.53765115247</v>
+        <v>261.31820730015</v>
       </c>
       <c r="R10">
-        <v>2551.83886037223</v>
+        <v>2351.86386570135</v>
       </c>
       <c r="S10">
-        <v>0.03613670479944273</v>
+        <v>0.02923044099712992</v>
       </c>
       <c r="T10">
-        <v>0.04726522390205133</v>
+        <v>0.04254457991113875</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>4.682106</v>
       </c>
       <c r="I11">
-        <v>0.08847093125385119</v>
+        <v>0.0610349893274942</v>
       </c>
       <c r="J11">
-        <v>0.1154649406733999</v>
+        <v>0.08833487085732371</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.9304815</v>
+        <v>4.5905135</v>
       </c>
       <c r="N11">
-        <v>3.860963</v>
+        <v>9.181027</v>
       </c>
       <c r="O11">
-        <v>0.004340330922523763</v>
+        <v>0.01313010140695066</v>
       </c>
       <c r="P11">
-        <v>0.00289984788751331</v>
+        <v>0.008803034175754825</v>
       </c>
       <c r="Q11">
-        <v>3.012906338013</v>
+        <v>7.164423600477001</v>
       </c>
       <c r="R11">
-        <v>18.077438028078</v>
+        <v>42.986541602862</v>
       </c>
       <c r="S11">
-        <v>0.0003839931186655644</v>
+        <v>0.0008013955992421498</v>
       </c>
       <c r="T11">
-        <v>0.0003348307642936083</v>
+        <v>0.0007776148870679095</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>4.682106</v>
       </c>
       <c r="I12">
-        <v>0.08847093125385119</v>
+        <v>0.0610349893274942</v>
       </c>
       <c r="J12">
-        <v>0.1154649406733999</v>
+        <v>0.08833487085732371</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.738101</v>
+        <v>62.54697533333334</v>
       </c>
       <c r="N12">
-        <v>8.214302999999999</v>
+        <v>187.640926</v>
       </c>
       <c r="O12">
-        <v>0.006156114129709732</v>
+        <v>0.1789011466418099</v>
       </c>
       <c r="P12">
-        <v>0.006169504655171325</v>
+        <v>0.1799155458695723</v>
       </c>
       <c r="Q12">
-        <v>4.273359706902</v>
+        <v>97.61718949668401</v>
       </c>
       <c r="R12">
-        <v>38.460237362118</v>
+        <v>878.554705470156</v>
       </c>
       <c r="S12">
-        <v>0.0005446371499604117</v>
+        <v>0.01091922957595934</v>
       </c>
       <c r="T12">
-        <v>0.0007123614889936213</v>
+        <v>0.01589281650961357</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>4.682106</v>
       </c>
       <c r="I13">
-        <v>0.08847093125385119</v>
+        <v>0.0610349893274942</v>
       </c>
       <c r="J13">
-        <v>0.1154649406733999</v>
+        <v>0.08833487085732371</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>256.3297323333333</v>
+        <v>112.5801623333333</v>
       </c>
       <c r="N13">
-        <v>768.9891969999999</v>
+        <v>337.740487</v>
       </c>
       <c r="O13">
-        <v>0.5763100364383734</v>
+        <v>0.3220094980327655</v>
       </c>
       <c r="P13">
-        <v>0.5775636022518233</v>
+        <v>0.3238353453918694</v>
       </c>
       <c r="Q13">
-        <v>400.054325912098</v>
+        <v>175.704084513958</v>
       </c>
       <c r="R13">
-        <v>3600.488933208881</v>
+        <v>1581.336760625622</v>
       </c>
       <c r="S13">
-        <v>0.05098668561464381</v>
+        <v>0.01965384627578161</v>
       </c>
       <c r="T13">
-        <v>0.0666883470691219</v>
+        <v>0.0286059534142276</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,19 +1284,19 @@
         <v>2</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1772183333333333</v>
+        <v>19.3965805</v>
       </c>
       <c r="H14">
-        <v>0.531655</v>
+        <v>38.793161</v>
       </c>
       <c r="I14">
-        <v>0.0100459094594967</v>
+        <v>0.7585497319843134</v>
       </c>
       <c r="J14">
-        <v>0.01311108997398103</v>
+        <v>0.7318904926719657</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.9656040000000001</v>
+        <v>1.3231235</v>
       </c>
       <c r="N14">
-        <v>1.931208</v>
+        <v>2.646247</v>
       </c>
       <c r="O14">
-        <v>0.002170982161762564</v>
+        <v>0.003784488539009737</v>
       </c>
       <c r="P14">
-        <v>0.001450469595059265</v>
+        <v>0.002537298145238945</v>
       </c>
       <c r="Q14">
-        <v>0.17112273154</v>
+        <v>25.66407147919175</v>
       </c>
       <c r="R14">
-        <v>1.02673638924</v>
+        <v>102.656285916767</v>
       </c>
       <c r="S14">
-        <v>2.180949023524913E-05</v>
+        <v>0.002870722766963542</v>
       </c>
       <c r="T14">
-        <v>1.901723736534585E-05</v>
+        <v>0.001857024389574596</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,19 +1346,19 @@
         <v>2</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1772183333333333</v>
+        <v>19.3965805</v>
       </c>
       <c r="H15">
-        <v>0.531655</v>
+        <v>38.793161</v>
       </c>
       <c r="I15">
-        <v>0.0100459094594967</v>
+        <v>0.7585497319843134</v>
       </c>
       <c r="J15">
-        <v>0.01311108997398103</v>
+        <v>0.7318904926719657</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,25 +1370,25 @@
         <v>1.140421</v>
       </c>
       <c r="N15">
-        <v>3.421263</v>
+        <v>3.421263000000001</v>
       </c>
       <c r="O15">
-        <v>0.002564025882141565</v>
+        <v>0.003261910323674263</v>
       </c>
       <c r="P15">
-        <v>0.00256960304545199</v>
+        <v>0.003280405897210136</v>
       </c>
       <c r="Q15">
-        <v>0.2021035089183333</v>
+        <v>22.1202677303905</v>
       </c>
       <c r="R15">
-        <v>1.818931580265</v>
+        <v>132.721606382343</v>
       </c>
       <c r="S15">
-        <v>2.575797186380032E-05</v>
+        <v>0.002474321201779978</v>
       </c>
       <c r="T15">
-        <v>3.369029672633669E-05</v>
+        <v>0.002400897888273148</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1772183333333333</v>
+        <v>19.3965805</v>
       </c>
       <c r="H16">
-        <v>0.531655</v>
+        <v>38.793161</v>
       </c>
       <c r="I16">
-        <v>0.0100459094594967</v>
+        <v>0.7585497319843134</v>
       </c>
       <c r="J16">
-        <v>0.01311108997398103</v>
+        <v>0.7318904926719657</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>181.6731516666667</v>
+        <v>167.436325</v>
       </c>
       <c r="N16">
-        <v>545.019455</v>
+        <v>502.308975</v>
       </c>
       <c r="O16">
-        <v>0.4084585104654889</v>
+        <v>0.47891285505579</v>
       </c>
       <c r="P16">
-        <v>0.4093469725649807</v>
+        <v>0.4816283705203542</v>
       </c>
       <c r="Q16">
-        <v>32.19581314978056</v>
+        <v>3247.692156486662</v>
       </c>
       <c r="R16">
-        <v>289.762318348025</v>
+        <v>19486.15293891997</v>
       </c>
       <c r="S16">
-        <v>0.004103337214097187</v>
+        <v>0.3632792178464119</v>
       </c>
       <c r="T16">
-        <v>0.005366984987876204</v>
+        <v>0.3524992253849381</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1772183333333333</v>
+        <v>19.3965805</v>
       </c>
       <c r="H17">
-        <v>0.531655</v>
+        <v>38.793161</v>
       </c>
       <c r="I17">
-        <v>0.0100459094594967</v>
+        <v>0.7585497319843134</v>
       </c>
       <c r="J17">
-        <v>0.01311108997398103</v>
+        <v>0.7318904926719657</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.9304815</v>
+        <v>4.5905135</v>
       </c>
       <c r="N17">
-        <v>3.860963</v>
+        <v>9.181027</v>
       </c>
       <c r="O17">
-        <v>0.004340330922523763</v>
+        <v>0.01313010140695066</v>
       </c>
       <c r="P17">
-        <v>0.00289984788751331</v>
+        <v>0.008803034175754825</v>
       </c>
       <c r="Q17">
-        <v>0.3421167139608333</v>
+        <v>89.04026463908674</v>
       </c>
       <c r="R17">
-        <v>2.052700283765</v>
+        <v>356.161058556347</v>
       </c>
       <c r="S17">
-        <v>4.360257147192752E-05</v>
+        <v>0.009959834903169276</v>
       </c>
       <c r="T17">
-        <v>3.802016656404582E-05</v>
+        <v>0.00644285701990135</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.1772183333333333</v>
+        <v>19.3965805</v>
       </c>
       <c r="H18">
-        <v>0.531655</v>
+        <v>38.793161</v>
       </c>
       <c r="I18">
-        <v>0.0100459094594967</v>
+        <v>0.7585497319843134</v>
       </c>
       <c r="J18">
-        <v>0.01311108997398103</v>
+        <v>0.7318904926719657</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.738101</v>
+        <v>62.54697533333334</v>
       </c>
       <c r="N18">
-        <v>8.214302999999999</v>
+        <v>187.640926</v>
       </c>
       <c r="O18">
-        <v>0.006156114129709732</v>
+        <v>0.1789011466418099</v>
       </c>
       <c r="P18">
-        <v>0.006169504655171325</v>
+        <v>0.1799155458695723</v>
       </c>
       <c r="Q18">
-        <v>0.4852416957183333</v>
+        <v>1213.197442084514</v>
       </c>
       <c r="R18">
-        <v>4.367175261464999</v>
+        <v>7279.184652507086</v>
       </c>
       <c r="S18">
-        <v>6.184376516939229E-05</v>
+        <v>0.1357054168368312</v>
       </c>
       <c r="T18">
-        <v>8.088893062884603E-05</v>
+        <v>0.131678477505827</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.1772183333333333</v>
+        <v>19.3965805</v>
       </c>
       <c r="H19">
-        <v>0.531655</v>
+        <v>38.793161</v>
       </c>
       <c r="I19">
-        <v>0.0100459094594967</v>
+        <v>0.7585497319843134</v>
       </c>
       <c r="J19">
-        <v>0.01311108997398103</v>
+        <v>0.7318904926719657</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>256.3297323333333</v>
+        <v>112.5801623333333</v>
       </c>
       <c r="N19">
-        <v>768.9891969999999</v>
+        <v>337.740487</v>
       </c>
       <c r="O19">
-        <v>0.5763100364383734</v>
+        <v>0.3220094980327655</v>
       </c>
       <c r="P19">
-        <v>0.5775636022518233</v>
+        <v>0.3238353453918694</v>
       </c>
       <c r="Q19">
-        <v>45.42632794789277</v>
+        <v>2183.670181401568</v>
       </c>
       <c r="R19">
-        <v>408.8369515310349</v>
+        <v>13102.02108840941</v>
       </c>
       <c r="S19">
-        <v>0.005789558446659144</v>
+        <v>0.2442602184291575</v>
       </c>
       <c r="T19">
-        <v>0.007572488354820246</v>
+        <v>0.2370120104834515</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>11.069776</v>
+        <v>0.220446</v>
       </c>
       <c r="H20">
-        <v>22.139552</v>
+        <v>0.661338</v>
       </c>
       <c r="I20">
-        <v>0.6275082568559097</v>
+        <v>0.008621068760909376</v>
       </c>
       <c r="J20">
-        <v>0.5459812439563845</v>
+        <v>0.0124771217958416</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.9656040000000001</v>
+        <v>1.3231235</v>
       </c>
       <c r="N20">
-        <v>1.931208</v>
+        <v>2.646247</v>
       </c>
       <c r="O20">
-        <v>0.002170982161762564</v>
+        <v>0.003784488539009737</v>
       </c>
       <c r="P20">
-        <v>0.001450469595059265</v>
+        <v>0.002537298145238945</v>
       </c>
       <c r="Q20">
-        <v>10.689019984704</v>
+        <v>0.291677283081</v>
       </c>
       <c r="R20">
-        <v>42.75607993881601</v>
+        <v>1.750063698486</v>
       </c>
       <c r="S20">
-        <v>0.001362309231992901</v>
+        <v>3.262633591967641E-05</v>
       </c>
       <c r="T20">
-        <v>0.0007919291938313708</v>
+        <v>3.165817799050932E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>11.069776</v>
+        <v>0.220446</v>
       </c>
       <c r="H21">
-        <v>22.139552</v>
+        <v>0.661338</v>
       </c>
       <c r="I21">
-        <v>0.6275082568559097</v>
+        <v>0.008621068760909376</v>
       </c>
       <c r="J21">
-        <v>0.5459812439563845</v>
+        <v>0.0124771217958416</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1742,25 +1742,25 @@
         <v>1.140421</v>
       </c>
       <c r="N21">
-        <v>3.421263</v>
+        <v>3.421263000000001</v>
       </c>
       <c r="O21">
-        <v>0.002564025882141565</v>
+        <v>0.003261910323674263</v>
       </c>
       <c r="P21">
-        <v>0.00256960304545199</v>
+        <v>0.003280405897210136</v>
       </c>
       <c r="Q21">
-        <v>12.624205015696</v>
+        <v>0.251401247766</v>
       </c>
       <c r="R21">
-        <v>75.74523009417599</v>
+        <v>2.262611229894</v>
       </c>
       <c r="S21">
-        <v>0.00160894741183609</v>
+        <v>2.812115319231598E-05</v>
       </c>
       <c r="T21">
-        <v>0.001402955067229991</v>
+        <v>4.093002391928792E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
         <v>27</v>
       </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>11.069776</v>
+        <v>0.220446</v>
       </c>
       <c r="H22">
-        <v>22.139552</v>
+        <v>0.661338</v>
       </c>
       <c r="I22">
-        <v>0.6275082568559097</v>
+        <v>0.008621068760909376</v>
       </c>
       <c r="J22">
-        <v>0.5459812439563845</v>
+        <v>0.0124771217958416</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>181.6731516666667</v>
+        <v>167.436325</v>
       </c>
       <c r="N22">
-        <v>545.019455</v>
+        <v>502.308975</v>
       </c>
       <c r="O22">
-        <v>0.4084585104654889</v>
+        <v>0.47891285505579</v>
       </c>
       <c r="P22">
-        <v>0.4093469725649807</v>
+        <v>0.4816283705203542</v>
       </c>
       <c r="Q22">
-        <v>2011.081094164027</v>
+        <v>36.91066810095001</v>
       </c>
       <c r="R22">
-        <v>12066.48656498416</v>
+        <v>332.19601290855</v>
       </c>
       <c r="S22">
-        <v>0.2563110879001603</v>
+        <v>0.004128740653919391</v>
       </c>
       <c r="T22">
-        <v>0.2234957692908082</v>
+        <v>0.006009335839315187</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>11.069776</v>
+        <v>0.220446</v>
       </c>
       <c r="H23">
-        <v>22.139552</v>
+        <v>0.661338</v>
       </c>
       <c r="I23">
-        <v>0.6275082568559097</v>
+        <v>0.008621068760909376</v>
       </c>
       <c r="J23">
-        <v>0.5459812439563845</v>
+        <v>0.0124771217958416</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.9304815</v>
+        <v>4.5905135</v>
       </c>
       <c r="N23">
-        <v>3.860963</v>
+        <v>9.181027</v>
       </c>
       <c r="O23">
-        <v>0.004340330922523763</v>
+        <v>0.01313010140695066</v>
       </c>
       <c r="P23">
-        <v>0.00289984788751331</v>
+        <v>0.008803034175754825</v>
       </c>
       <c r="Q23">
-        <v>21.369997777144</v>
+        <v>1.011960339021</v>
       </c>
       <c r="R23">
-        <v>85.479991108576</v>
+        <v>6.071762034126</v>
       </c>
       <c r="S23">
-        <v>0.002723593491370689</v>
+        <v>0.0001131955070670345</v>
       </c>
       <c r="T23">
-        <v>0.001583262556908811</v>
+        <v>0.000109836529583849</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>11.069776</v>
+        <v>0.220446</v>
       </c>
       <c r="H24">
-        <v>22.139552</v>
+        <v>0.661338</v>
       </c>
       <c r="I24">
-        <v>0.6275082568559097</v>
+        <v>0.008621068760909376</v>
       </c>
       <c r="J24">
-        <v>0.5459812439563845</v>
+        <v>0.0124771217958416</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.738101</v>
+        <v>62.54697533333334</v>
       </c>
       <c r="N24">
-        <v>8.214302999999999</v>
+        <v>187.640926</v>
       </c>
       <c r="O24">
-        <v>0.006156114129709732</v>
+        <v>0.1789011466418099</v>
       </c>
       <c r="P24">
-        <v>0.006169504655171325</v>
+        <v>0.1799155458695723</v>
       </c>
       <c r="Q24">
-        <v>30.310164735376</v>
+        <v>13.788230524332</v>
       </c>
       <c r="R24">
-        <v>181.860988412256</v>
+        <v>124.094074718988</v>
       </c>
       <c r="S24">
-        <v>0.003863012446540189</v>
+        <v>0.001542319086604575</v>
       </c>
       <c r="T24">
-        <v>0.003368433826225145</v>
+        <v>0.002244828178779981</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>11.069776</v>
+        <v>0.220446</v>
       </c>
       <c r="H25">
-        <v>22.139552</v>
+        <v>0.661338</v>
       </c>
       <c r="I25">
-        <v>0.6275082568559097</v>
+        <v>0.008621068760909376</v>
       </c>
       <c r="J25">
-        <v>0.5459812439563845</v>
+        <v>0.0124771217958416</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>256.3297323333333</v>
+        <v>112.5801623333333</v>
       </c>
       <c r="N25">
-        <v>768.9891969999999</v>
+        <v>337.740487</v>
       </c>
       <c r="O25">
-        <v>0.5763100364383734</v>
+        <v>0.3220094980327655</v>
       </c>
       <c r="P25">
-        <v>0.5775636022518233</v>
+        <v>0.3238353453918694</v>
       </c>
       <c r="Q25">
-        <v>2837.512719069957</v>
+        <v>24.817846465734</v>
       </c>
       <c r="R25">
-        <v>17025.07631441974</v>
+        <v>223.360618191606</v>
       </c>
       <c r="S25">
-        <v>0.3616393063740095</v>
+        <v>0.002776066024206384</v>
       </c>
       <c r="T25">
-        <v>0.315338894021381</v>
+        <v>0.004040533046252788</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,31 +2016,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>3.304048</v>
+        <v>0.08168</v>
       </c>
       <c r="H26">
-        <v>9.912144</v>
+        <v>0.24504</v>
       </c>
       <c r="I26">
-        <v>0.1872953347067054</v>
+        <v>0.003194292009794135</v>
       </c>
       <c r="J26">
-        <v>0.244442376765113</v>
+        <v>0.004623042868930905</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.9656040000000001</v>
+        <v>1.3231235</v>
       </c>
       <c r="N26">
-        <v>1.931208</v>
+        <v>2.646247</v>
       </c>
       <c r="O26">
-        <v>0.002170982161762564</v>
+        <v>0.003784488539009737</v>
       </c>
       <c r="P26">
-        <v>0.001450469595059265</v>
+        <v>0.002537298145238945</v>
       </c>
       <c r="Q26">
-        <v>3.190401964992</v>
+        <v>0.10807272748</v>
       </c>
       <c r="R26">
-        <v>19.142411789952</v>
+        <v>0.64843636488</v>
       </c>
       <c r="S26">
-        <v>0.0004066148306296062</v>
+        <v>1.208876150131628E-05</v>
       </c>
       <c r="T26">
-        <v>0.0003545562352418178</v>
+        <v>1.173003809669852E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,31 +2078,31 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>3.304048</v>
+        <v>0.08168</v>
       </c>
       <c r="H27">
-        <v>9.912144</v>
+        <v>0.24504</v>
       </c>
       <c r="I27">
-        <v>0.1872953347067054</v>
+        <v>0.003194292009794135</v>
       </c>
       <c r="J27">
-        <v>0.244442376765113</v>
+        <v>0.004623042868930905</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2114,25 +2114,25 @@
         <v>1.140421</v>
       </c>
       <c r="N27">
-        <v>3.421263</v>
+        <v>3.421263000000001</v>
       </c>
       <c r="O27">
-        <v>0.002564025882141565</v>
+        <v>0.003261910323674263</v>
       </c>
       <c r="P27">
-        <v>0.00256960304545199</v>
+        <v>0.003280405897210136</v>
       </c>
       <c r="Q27">
-        <v>3.768005724207999</v>
+        <v>0.09314958728000002</v>
       </c>
       <c r="R27">
-        <v>33.91205151787199</v>
+        <v>0.8383462855200001</v>
       </c>
       <c r="S27">
-        <v>0.0004802300857923599</v>
+        <v>1.04194940835777E-05</v>
       </c>
       <c r="T27">
-        <v>0.000628119875773157</v>
+        <v>1.516545709029621E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,31 +2140,31 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
         <v>27</v>
       </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
       <c r="E28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>3.304048</v>
+        <v>0.08168</v>
       </c>
       <c r="H28">
-        <v>9.912144</v>
+        <v>0.24504</v>
       </c>
       <c r="I28">
-        <v>0.1872953347067054</v>
+        <v>0.003194292009794135</v>
       </c>
       <c r="J28">
-        <v>0.244442376765113</v>
+        <v>0.004623042868930905</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>181.6731516666667</v>
+        <v>167.436325</v>
       </c>
       <c r="N28">
-        <v>545.019455</v>
+        <v>502.308975</v>
       </c>
       <c r="O28">
-        <v>0.4084585104654889</v>
+        <v>0.47891285505579</v>
       </c>
       <c r="P28">
-        <v>0.4093469725649807</v>
+        <v>0.4816283705203542</v>
       </c>
       <c r="Q28">
-        <v>600.2568134179467</v>
+        <v>13.676199026</v>
       </c>
       <c r="R28">
-        <v>5402.31132076152</v>
+        <v>123.085791234</v>
       </c>
       <c r="S28">
-        <v>0.07650237343143608</v>
+        <v>0.001529787506292407</v>
       </c>
       <c r="T28">
-        <v>0.1000617468953874</v>
+        <v>0.002226588603808935</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,31 +2202,31 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>3.304048</v>
+        <v>0.08168</v>
       </c>
       <c r="H29">
-        <v>9.912144</v>
+        <v>0.24504</v>
       </c>
       <c r="I29">
-        <v>0.1872953347067054</v>
+        <v>0.003194292009794135</v>
       </c>
       <c r="J29">
-        <v>0.244442376765113</v>
+        <v>0.004623042868930905</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.9304815</v>
+        <v>4.5905135</v>
       </c>
       <c r="N29">
-        <v>3.860963</v>
+        <v>9.181027</v>
       </c>
       <c r="O29">
-        <v>0.004340330922523763</v>
+        <v>0.01313010140695066</v>
       </c>
       <c r="P29">
-        <v>0.00289984788751331</v>
+        <v>0.008803034175754825</v>
       </c>
       <c r="Q29">
-        <v>6.378403539112</v>
+        <v>0.37495314268</v>
       </c>
       <c r="R29">
-        <v>38.270421234672</v>
+        <v>2.24971885608</v>
       </c>
       <c r="S29">
-        <v>0.0008129237328719516</v>
+        <v>4.19413780120092E-05</v>
       </c>
       <c r="T29">
-        <v>0.0007088457098810457</v>
+        <v>4.069680437117839E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,31 +2264,31 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>3.304048</v>
+        <v>0.08168</v>
       </c>
       <c r="H30">
-        <v>9.912144</v>
+        <v>0.24504</v>
       </c>
       <c r="I30">
-        <v>0.1872953347067054</v>
+        <v>0.003194292009794135</v>
       </c>
       <c r="J30">
-        <v>0.244442376765113</v>
+        <v>0.004623042868930905</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.738101</v>
+        <v>62.54697533333334</v>
       </c>
       <c r="N30">
-        <v>8.214302999999999</v>
+        <v>187.640926</v>
       </c>
       <c r="O30">
-        <v>0.006156114129709732</v>
+        <v>0.1789011466418099</v>
       </c>
       <c r="P30">
-        <v>0.006169504655171325</v>
+        <v>0.1799155458695723</v>
       </c>
       <c r="Q30">
-        <v>9.046817132848</v>
+        <v>5.108836945226667</v>
       </c>
       <c r="R30">
-        <v>81.42135419563199</v>
+        <v>45.97953250704001</v>
       </c>
       <c r="S30">
-        <v>0.001153011456416663</v>
+        <v>0.0005714625032609422</v>
       </c>
       <c r="T30">
-        <v>0.001508088381373508</v>
+        <v>0.0008317572813421374</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,31 +2326,31 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>3.304048</v>
+        <v>0.08168</v>
       </c>
       <c r="H31">
-        <v>9.912144</v>
+        <v>0.24504</v>
       </c>
       <c r="I31">
-        <v>0.1872953347067054</v>
+        <v>0.003194292009794135</v>
       </c>
       <c r="J31">
-        <v>0.244442376765113</v>
+        <v>0.004623042868930905</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,400 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>256.3297323333333</v>
+        <v>112.5801623333333</v>
       </c>
       <c r="N31">
-        <v>768.9891969999999</v>
+        <v>337.740487</v>
       </c>
       <c r="O31">
-        <v>0.5763100364383734</v>
+        <v>0.3220094980327655</v>
       </c>
       <c r="P31">
-        <v>0.5775636022518233</v>
+        <v>0.3238353453918694</v>
       </c>
       <c r="Q31">
-        <v>846.9257394564852</v>
+        <v>9.195547659386667</v>
       </c>
       <c r="R31">
-        <v>7622.331655108366</v>
+        <v>82.75992893448002</v>
       </c>
       <c r="S31">
-        <v>0.1079401811695587</v>
+        <v>0.001028592366643883</v>
       </c>
       <c r="T31">
-        <v>0.1411810196674561</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
-      <c r="F32">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G32">
-        <v>0.2263643333333333</v>
-      </c>
-      <c r="H32">
-        <v>0.6790929999999999</v>
-      </c>
-      <c r="I32">
-        <v>0.01283183040238123</v>
-      </c>
-      <c r="J32">
-        <v>0.01674704352202217</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>0.9656040000000001</v>
-      </c>
-      <c r="N32">
-        <v>1.931208</v>
-      </c>
-      <c r="O32">
-        <v>0.002170982161762564</v>
-      </c>
-      <c r="P32">
-        <v>0.001450469595059265</v>
-      </c>
-      <c r="Q32">
-        <v>0.218578305724</v>
-      </c>
-      <c r="R32">
-        <v>1.311469834344</v>
-      </c>
-      <c r="S32">
-        <v>2.785767490633218E-05</v>
-      </c>
-      <c r="T32">
-        <v>2.429107743582738E-05</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-      <c r="F33">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G33">
-        <v>0.2263643333333333</v>
-      </c>
-      <c r="H33">
-        <v>0.6790929999999999</v>
-      </c>
-      <c r="I33">
-        <v>0.01283183040238123</v>
-      </c>
-      <c r="J33">
-        <v>0.01674704352202217</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>1.140421</v>
-      </c>
-      <c r="N33">
-        <v>3.421263</v>
-      </c>
-      <c r="O33">
-        <v>0.002564025882141565</v>
-      </c>
-      <c r="P33">
-        <v>0.00256960304545199</v>
-      </c>
-      <c r="Q33">
-        <v>0.2581506393843333</v>
-      </c>
-      <c r="R33">
-        <v>2.323355754459</v>
-      </c>
-      <c r="S33">
-        <v>3.290114526695648E-05</v>
-      </c>
-      <c r="T33">
-        <v>4.303325403650518E-05</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-      <c r="F34">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G34">
-        <v>0.2263643333333333</v>
-      </c>
-      <c r="H34">
-        <v>0.6790929999999999</v>
-      </c>
-      <c r="I34">
-        <v>0.01283183040238123</v>
-      </c>
-      <c r="J34">
-        <v>0.01674704352202217</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>181.6731516666667</v>
-      </c>
-      <c r="N34">
-        <v>545.019455</v>
-      </c>
-      <c r="O34">
-        <v>0.4084585104654889</v>
-      </c>
-      <c r="P34">
-        <v>0.4093469725649807</v>
-      </c>
-      <c r="Q34">
-        <v>41.12432186159054</v>
-      </c>
-      <c r="R34">
-        <v>370.118896754315</v>
-      </c>
-      <c r="S34">
-        <v>0.005241270332702412</v>
-      </c>
-      <c r="T34">
-        <v>0.006855351565153747</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-      <c r="F35">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G35">
-        <v>0.2263643333333333</v>
-      </c>
-      <c r="H35">
-        <v>0.6790929999999999</v>
-      </c>
-      <c r="I35">
-        <v>0.01283183040238123</v>
-      </c>
-      <c r="J35">
-        <v>0.01674704352202217</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>1.9304815</v>
-      </c>
-      <c r="N35">
-        <v>3.860963</v>
-      </c>
-      <c r="O35">
-        <v>0.004340330922523763</v>
-      </c>
-      <c r="P35">
-        <v>0.00289984788751331</v>
-      </c>
-      <c r="Q35">
-        <v>0.4369921577598333</v>
-      </c>
-      <c r="R35">
-        <v>2.621952946559</v>
-      </c>
-      <c r="S35">
-        <v>5.569439028803578E-05</v>
-      </c>
-      <c r="T35">
-        <v>4.856387877942946E-05</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-      <c r="F36">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G36">
-        <v>0.2263643333333333</v>
-      </c>
-      <c r="H36">
-        <v>0.6790929999999999</v>
-      </c>
-      <c r="I36">
-        <v>0.01283183040238123</v>
-      </c>
-      <c r="J36">
-        <v>0.01674704352202217</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>2.738101</v>
-      </c>
-      <c r="N36">
-        <v>8.214302999999999</v>
-      </c>
-      <c r="O36">
-        <v>0.006156114129709732</v>
-      </c>
-      <c r="P36">
-        <v>0.006169504655171325</v>
-      </c>
-      <c r="Q36">
-        <v>0.6198084074643332</v>
-      </c>
-      <c r="R36">
-        <v>5.578275667178999</v>
-      </c>
-      <c r="S36">
-        <v>7.899421245013799E-05</v>
-      </c>
-      <c r="T36">
-        <v>0.0001033209629694725</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-      <c r="F37">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G37">
-        <v>0.2263643333333333</v>
-      </c>
-      <c r="H37">
-        <v>0.6790929999999999</v>
-      </c>
-      <c r="I37">
-        <v>0.01283183040238123</v>
-      </c>
-      <c r="J37">
-        <v>0.01674704352202217</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>256.3297323333333</v>
-      </c>
-      <c r="N37">
-        <v>768.9891969999999</v>
-      </c>
-      <c r="O37">
-        <v>0.5763100364383734</v>
-      </c>
-      <c r="P37">
-        <v>0.5775636022518233</v>
-      </c>
-      <c r="Q37">
-        <v>58.02390897314677</v>
-      </c>
-      <c r="R37">
-        <v>522.2151807583209</v>
-      </c>
-      <c r="S37">
-        <v>0.007395112646767353</v>
-      </c>
-      <c r="T37">
-        <v>0.009672482783647187</v>
+        <v>0.001497104684221658</v>
       </c>
     </row>
   </sheetData>
